--- a/Modelo rúbrica proyecto primer trimestre.xlsx
+++ b/Modelo rúbrica proyecto primer trimestre.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier\Documents\GitHub\proyecto1-DI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\OneDrive\Escritorio\Grado Superior\2ºDAM\Desarrollo de Interfaces\proyecto-trimestral-di-Diegonmarti2567\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="20736" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -239,7 +239,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87634B57-7278-482F-B68B-669C448F7457}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87634B57-7278-482F-B68B-669C448F7457}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -294,7 +294,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF7D10BD-08CB-47E3-913F-97EFEE17600B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF7D10BD-08CB-47E3-913F-97EFEE17600B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -349,7 +349,7 @@
         <xdr:cNvPr id="4" name="CuadroTexto 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C29F387-D3C5-40A3-BA04-F90D2E9CF89A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C29F387-D3C5-40A3-BA04-F90D2E9CF89A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -404,7 +404,7 @@
         <xdr:cNvPr id="5" name="CuadroTexto 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74DC560F-50F6-4312-BE53-D43CD1A18FBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74DC560F-50F6-4312-BE53-D43CD1A18FBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -714,23 +714,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="131" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.7265625" customWidth="1"/>
+    <col min="1" max="1" width="1.77734375" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" customWidth="1"/>
-    <col min="4" max="4" width="9.453125" customWidth="1"/>
-    <col min="5" max="5" width="17.7265625" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="5"/>
     </row>
-    <row r="4" spans="2:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
         <v>4</v>
@@ -742,7 +742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
@@ -750,7 +750,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
@@ -760,7 +760,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>0</v>
       </c>
@@ -770,7 +770,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>2</v>
       </c>
@@ -780,7 +780,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
         <v>8</v>
       </c>
@@ -790,7 +790,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
@@ -798,7 +798,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
         <v>10</v>
       </c>
@@ -808,7 +808,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
@@ -818,7 +818,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
         <v>11</v>
       </c>
@@ -828,7 +828,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
         <v>14</v>
       </c>
@@ -838,7 +838,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:5" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
         <v>13</v>
       </c>
@@ -848,7 +848,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
         <v>12</v>
       </c>
@@ -858,7 +858,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C17" s="2">
         <f>SUM(C6:C16)</f>
         <v>10</v>
